--- a/natmiOut/OldD0/LR-pairs_lrc2p/Osm-Osmr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Osm-Osmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Osm</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.57537191042135</v>
+        <v>21.90566233333334</v>
       </c>
       <c r="H2">
-        <v>1.57537191042135</v>
+        <v>65.716987</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9982377076397728</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9982377076397729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.78501780685565</v>
+        <v>25.45779733333333</v>
       </c>
       <c r="N2">
-        <v>7.78501780685565</v>
+        <v>76.373392</v>
       </c>
       <c r="O2">
-        <v>0.09192899969193058</v>
+        <v>0.2480357710869278</v>
       </c>
       <c r="P2">
-        <v>0.09192899969193058</v>
+        <v>0.2480357710869278</v>
       </c>
       <c r="Q2">
-        <v>12.26429837505041</v>
+        <v>557.6699121344338</v>
       </c>
       <c r="R2">
-        <v>12.26429837505041</v>
+        <v>5019.029209209904</v>
       </c>
       <c r="S2">
-        <v>0.09192899969193058</v>
+        <v>0.2475986595424782</v>
       </c>
       <c r="T2">
-        <v>0.09192899969193058</v>
+        <v>0.2475986595424783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.57537191042135</v>
+        <v>21.90566233333334</v>
       </c>
       <c r="H3">
-        <v>1.57537191042135</v>
+        <v>65.716987</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9982377076397728</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9982377076397729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.6208465731469</v>
+        <v>52.87700633333333</v>
       </c>
       <c r="N3">
-        <v>52.6208465731469</v>
+        <v>158.631019</v>
       </c>
       <c r="O3">
-        <v>0.6213706774250469</v>
+        <v>0.515181610841248</v>
       </c>
       <c r="P3">
-        <v>0.6213706774250469</v>
+        <v>0.5151816108412481</v>
       </c>
       <c r="Q3">
-        <v>82.89740359392718</v>
+        <v>1158.305845935528</v>
       </c>
       <c r="R3">
-        <v>82.89740359392718</v>
+        <v>10424.75261341975</v>
       </c>
       <c r="S3">
-        <v>0.6213706774250469</v>
+        <v>0.514273710224333</v>
       </c>
       <c r="T3">
-        <v>0.6213706774250469</v>
+        <v>0.5142737102243331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>21.90566233333334</v>
+      </c>
+      <c r="H4">
+        <v>65.716987</v>
+      </c>
+      <c r="I4">
+        <v>0.9982377076397728</v>
+      </c>
+      <c r="J4">
+        <v>0.9982377076397729</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>24.30280066666667</v>
+      </c>
+      <c r="N4">
+        <v>72.90840200000001</v>
+      </c>
+      <c r="O4">
+        <v>0.2367826180718242</v>
+      </c>
+      <c r="P4">
+        <v>0.2367826180718242</v>
+      </c>
+      <c r="Q4">
+        <v>532.3689451583083</v>
+      </c>
+      <c r="R4">
+        <v>4791.320506424775</v>
+      </c>
+      <c r="S4">
+        <v>0.2363653378729616</v>
+      </c>
+      <c r="T4">
+        <v>0.2363653378729616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.03867233333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.116017</v>
+      </c>
+      <c r="I5">
+        <v>0.001762292360227098</v>
+      </c>
+      <c r="J5">
+        <v>0.001762292360227098</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>25.45779733333333</v>
+      </c>
+      <c r="N5">
+        <v>76.373392</v>
+      </c>
+      <c r="O5">
+        <v>0.2480357710869278</v>
+      </c>
+      <c r="P5">
+        <v>0.2480357710869278</v>
+      </c>
+      <c r="Q5">
+        <v>0.984512424407111</v>
+      </c>
+      <c r="R5">
+        <v>8.860611819663999</v>
+      </c>
+      <c r="S5">
+        <v>0.0004371115444495301</v>
+      </c>
+      <c r="T5">
+        <v>0.0004371115444495302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.57537191042135</v>
-      </c>
-      <c r="H4">
-        <v>1.57537191042135</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>24.2792494898812</v>
-      </c>
-      <c r="N4">
-        <v>24.2792494898812</v>
-      </c>
-      <c r="O4">
-        <v>0.2867003228830225</v>
-      </c>
-      <c r="P4">
-        <v>0.2867003228830225</v>
-      </c>
-      <c r="Q4">
-        <v>38.24884765247073</v>
-      </c>
-      <c r="R4">
-        <v>38.24884765247073</v>
-      </c>
-      <c r="S4">
-        <v>0.2867003228830225</v>
-      </c>
-      <c r="T4">
-        <v>0.2867003228830225</v>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.03867233333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.116017</v>
+      </c>
+      <c r="I6">
+        <v>0.001762292360227098</v>
+      </c>
+      <c r="J6">
+        <v>0.001762292360227098</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>52.87700633333333</v>
+      </c>
+      <c r="N6">
+        <v>158.631019</v>
+      </c>
+      <c r="O6">
+        <v>0.515181610841248</v>
+      </c>
+      <c r="P6">
+        <v>0.5151816108412481</v>
+      </c>
+      <c r="Q6">
+        <v>2.044877214591444</v>
+      </c>
+      <c r="R6">
+        <v>18.403894931323</v>
+      </c>
+      <c r="S6">
+        <v>0.0009079006169150212</v>
+      </c>
+      <c r="T6">
+        <v>0.0009079006169150216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.03867233333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.116017</v>
+      </c>
+      <c r="I7">
+        <v>0.001762292360227098</v>
+      </c>
+      <c r="J7">
+        <v>0.001762292360227098</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>24.30280066666667</v>
+      </c>
+      <c r="N7">
+        <v>72.90840200000001</v>
+      </c>
+      <c r="O7">
+        <v>0.2367826180718242</v>
+      </c>
+      <c r="P7">
+        <v>0.2367826180718242</v>
+      </c>
+      <c r="Q7">
+        <v>0.939846008314889</v>
+      </c>
+      <c r="R7">
+        <v>8.458614074834001</v>
+      </c>
+      <c r="S7">
+        <v>0.0004172801988625465</v>
+      </c>
+      <c r="T7">
+        <v>0.0004172801988625465</v>
       </c>
     </row>
   </sheetData>
